--- a/test file for students - Copy.xlsx
+++ b/test file for students - Copy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nirav\SWDC-Report-Generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C459925-D38B-49C5-BB8C-5D4FD0D64460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8216C445-73CD-44C4-BA8B-5732DFF0C2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,30 +19,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="114">
   <si>
     <t>Year</t>
   </si>
@@ -92,21 +70,12 @@
     <t>TY</t>
   </si>
   <si>
-    <t>OS</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
     <t>E-SC</t>
   </si>
   <si>
     <t>E-CG</t>
   </si>
   <si>
-    <t>SE</t>
-  </si>
-  <si>
     <t>Aaditya Padmanabhan</t>
   </si>
   <si>
@@ -353,26 +322,63 @@
     <t>Course Code 2</t>
   </si>
   <si>
-    <t>COA</t>
-  </si>
-  <si>
-    <t>ITVC</t>
-  </si>
-  <si>
-    <t>DSM</t>
-  </si>
-  <si>
-    <t>OOPM</t>
+    <t>116U01C603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116U01C602 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">116U01C601 </t>
+  </si>
+  <si>
+    <t>116U01C601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116U01E628 </t>
+  </si>
+  <si>
+    <t>116U01E628</t>
+  </si>
+  <si>
+    <t>116U01E627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">216U01C402 </t>
+  </si>
+  <si>
+    <t>216U01C402</t>
+  </si>
+  <si>
+    <t>216U01C403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">216U01C404 </t>
+  </si>
+  <si>
+    <t>216U01C404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116U01E851 </t>
+  </si>
+  <si>
+    <t>116U01E851</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -388,6 +394,23 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -408,21 +431,74 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{1A54AA95-AB1D-4FBC-AA2C-61B0BB631F7E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -727,8 +803,8 @@
   </sheetPr>
   <dimension ref="A1:DQ161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82:C161"/>
+    <sheetView tabSelected="1" topLeftCell="B139" workbookViewId="0">
+      <selection activeCell="J159" sqref="J159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -756,10 +832,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -804,20 +880,19 @@
         <v>16010122001</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="str" cm="1">
-        <f t="array" aca="1" ref="F2" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-SC</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ2" s="1">
         <v>16010122001</v>
@@ -838,20 +913,19 @@
         <v>16010122002</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="str" cm="1">
-        <f t="array" aca="1" ref="F3" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-CG</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ3" s="1">
         <f t="shared" ref="DQ3:DQ34" si="1">SUM(DQ2,1)</f>
@@ -873,20 +947,19 @@
         <v>16010122003</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="str" cm="1">
-        <f t="array" aca="1" ref="F4" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-CG</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
         <v>20</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ4" s="1">
         <f t="shared" si="1"/>
@@ -908,20 +981,19 @@
         <v>16010122004</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="str" cm="1">
-        <f t="array" aca="1" ref="F5" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-SC</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ5" s="1">
         <f t="shared" si="1"/>
@@ -943,20 +1015,19 @@
         <v>16010122005</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="str" cm="1">
-        <f t="array" aca="1" ref="F6" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-SC</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ6" s="1">
         <f t="shared" si="1"/>
@@ -978,20 +1049,19 @@
         <v>16010122006</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="str" cm="1">
-        <f t="array" aca="1" ref="F7" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-SC</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ7" s="1">
         <f t="shared" si="1"/>
@@ -1013,20 +1083,19 @@
         <v>16010122007</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" t="str" cm="1">
-        <f t="array" aca="1" ref="F8" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-SC</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ8" s="1">
         <f t="shared" si="1"/>
@@ -1048,20 +1117,19 @@
         <v>16010122008</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="str" cm="1">
-        <f t="array" aca="1" ref="F9" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-CG</v>
-      </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ9" s="1">
         <f t="shared" si="1"/>
@@ -1083,20 +1151,19 @@
         <v>16010122009</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="str" cm="1">
-        <f t="array" aca="1" ref="F10" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-SC</v>
-      </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ10" s="1">
         <f t="shared" si="1"/>
@@ -1118,20 +1185,19 @@
         <v>16010122010</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" t="str" cm="1">
-        <f t="array" aca="1" ref="F11" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-SC</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ11" s="1">
         <f t="shared" si="1"/>
@@ -1153,20 +1219,19 @@
         <v>16010122011</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" t="str" cm="1">
-        <f t="array" aca="1" ref="F12" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-CG</v>
-      </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" t="s">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ12" s="1">
         <f t="shared" si="1"/>
@@ -1188,20 +1253,19 @@
         <v>16010122012</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" t="str" cm="1">
-        <f t="array" aca="1" ref="F13" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-CG</v>
-      </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" t="s">
-        <v>20</v>
+        <v>29</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ13" s="1">
         <f t="shared" si="1"/>
@@ -1223,20 +1287,19 @@
         <v>16010122013</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" t="str" cm="1">
-        <f t="array" aca="1" ref="F14" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-SC</v>
-      </c>
-      <c r="G14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" t="s">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ14" s="1">
         <f t="shared" si="1"/>
@@ -1258,20 +1321,19 @@
         <v>16010122014</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" t="str" cm="1">
-        <f t="array" aca="1" ref="F15" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-CG</v>
-      </c>
-      <c r="G15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" t="s">
-        <v>20</v>
+        <v>31</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ15" s="1">
         <f t="shared" si="1"/>
@@ -1293,20 +1355,19 @@
         <v>16010122015</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" t="str" cm="1">
-        <f t="array" aca="1" ref="F16" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-CG</v>
-      </c>
-      <c r="G16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" t="s">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ16" s="1">
         <f t="shared" si="1"/>
@@ -1328,20 +1389,19 @@
         <v>16010122016</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" t="str" cm="1">
-        <f t="array" aca="1" ref="F17" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-SC</v>
-      </c>
-      <c r="G17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" t="s">
-        <v>20</v>
+        <v>33</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ17" s="1">
         <f t="shared" si="1"/>
@@ -1363,20 +1423,19 @@
         <v>16010122017</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" t="str" cm="1">
-        <f t="array" aca="1" ref="F18" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-CG</v>
-      </c>
-      <c r="G18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" t="s">
-        <v>20</v>
+        <v>34</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ18" s="1">
         <f t="shared" si="1"/>
@@ -1398,20 +1457,19 @@
         <v>16010122018</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" t="str" cm="1">
-        <f t="array" aca="1" ref="F19" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-CG</v>
-      </c>
-      <c r="G19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" t="s">
-        <v>20</v>
+        <v>35</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ19" s="1">
         <f t="shared" si="1"/>
@@ -1433,20 +1491,19 @@
         <v>16010122019</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" t="str" cm="1">
-        <f t="array" aca="1" ref="F20" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-CG</v>
-      </c>
-      <c r="G20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" t="s">
-        <v>20</v>
+        <v>36</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ20" s="1">
         <f t="shared" si="1"/>
@@ -1468,20 +1525,19 @@
         <v>16010122020</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" t="str" cm="1">
-        <f t="array" aca="1" ref="F21" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-CG</v>
-      </c>
-      <c r="G21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" t="s">
-        <v>20</v>
+        <v>37</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ21" s="1">
         <f t="shared" si="1"/>
@@ -1503,20 +1559,19 @@
         <v>16010122021</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" t="str" cm="1">
-        <f t="array" aca="1" ref="F22" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-CG</v>
-      </c>
-      <c r="G22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" t="s">
-        <v>20</v>
+        <v>38</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ22" s="1">
         <f t="shared" si="1"/>
@@ -1538,20 +1593,19 @@
         <v>16010122022</v>
       </c>
       <c r="E23" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" t="str" cm="1">
-        <f t="array" aca="1" ref="F23" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-SC</v>
-      </c>
-      <c r="G23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" t="s">
-        <v>20</v>
+        <v>39</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ23" s="1">
         <f t="shared" si="1"/>
@@ -1573,20 +1627,19 @@
         <v>16010122023</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" t="str" cm="1">
-        <f t="array" aca="1" ref="F24" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-SC</v>
-      </c>
-      <c r="G24" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" t="s">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ24" s="1">
         <f t="shared" si="1"/>
@@ -1608,20 +1661,19 @@
         <v>16010122024</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" t="str" cm="1">
-        <f t="array" aca="1" ref="F25" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-CG</v>
-      </c>
-      <c r="G25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" t="s">
-        <v>20</v>
+        <v>41</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ25" s="1">
         <f t="shared" si="1"/>
@@ -1643,20 +1695,19 @@
         <v>16010122025</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" t="str" cm="1">
-        <f t="array" aca="1" ref="F26" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-SC</v>
-      </c>
-      <c r="G26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" t="s">
-        <v>20</v>
+        <v>42</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ26" s="1">
         <f t="shared" si="1"/>
@@ -1678,20 +1729,19 @@
         <v>16010122026</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" t="str" cm="1">
-        <f t="array" aca="1" ref="F27" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-CG</v>
-      </c>
-      <c r="G27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" t="s">
-        <v>20</v>
+        <v>43</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ27" s="1">
         <f t="shared" si="1"/>
@@ -1713,20 +1763,19 @@
         <v>16010122027</v>
       </c>
       <c r="E28" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" t="str" cm="1">
-        <f t="array" aca="1" ref="F28" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-SC</v>
-      </c>
-      <c r="G28" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" t="s">
-        <v>20</v>
+        <v>44</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ28" s="1">
         <f t="shared" si="1"/>
@@ -1748,20 +1797,19 @@
         <v>16010122028</v>
       </c>
       <c r="E29" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" t="str" cm="1">
-        <f t="array" aca="1" ref="F29" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-CG</v>
-      </c>
-      <c r="G29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" t="s">
-        <v>20</v>
+        <v>45</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ29" s="1">
         <f t="shared" si="1"/>
@@ -1783,20 +1831,19 @@
         <v>16010122029</v>
       </c>
       <c r="E30" t="s">
-        <v>49</v>
-      </c>
-      <c r="F30" t="str" cm="1">
-        <f t="array" aca="1" ref="F30" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-SC</v>
-      </c>
-      <c r="G30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" t="s">
-        <v>20</v>
+        <v>46</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ30" s="1">
         <f t="shared" si="1"/>
@@ -1818,20 +1865,19 @@
         <v>16010122030</v>
       </c>
       <c r="E31" t="s">
-        <v>50</v>
-      </c>
-      <c r="F31" t="str" cm="1">
-        <f t="array" aca="1" ref="F31" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-CG</v>
-      </c>
-      <c r="G31" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" t="s">
-        <v>20</v>
+        <v>47</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ31" s="1">
         <f t="shared" si="1"/>
@@ -1853,23 +1899,22 @@
         <v>16010122031</v>
       </c>
       <c r="E32" t="s">
-        <v>51</v>
-      </c>
-      <c r="F32" t="str" cm="1">
-        <f t="array" aca="1" ref="F32" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-SC</v>
-      </c>
-      <c r="G32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="CV32" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="I32" t="s">
-        <v>20</v>
-      </c>
-      <c r="CV32" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="DQ32" s="1">
         <f t="shared" si="1"/>
@@ -1891,23 +1936,22 @@
         <v>16010122032</v>
       </c>
       <c r="E33" t="s">
-        <v>52</v>
-      </c>
-      <c r="F33" t="str" cm="1">
-        <f t="array" aca="1" ref="F33" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-CG</v>
-      </c>
-      <c r="G33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="CV33" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="H33" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" t="s">
-        <v>20</v>
-      </c>
-      <c r="CV33" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="DQ33" s="1">
         <f t="shared" si="1"/>
@@ -1929,20 +1973,19 @@
         <v>16010122033</v>
       </c>
       <c r="E34" t="s">
-        <v>53</v>
-      </c>
-      <c r="F34" t="str" cm="1">
-        <f t="array" aca="1" ref="F34" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-CG</v>
-      </c>
-      <c r="G34" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" t="s">
-        <v>20</v>
+        <v>50</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ34" s="1">
         <f t="shared" si="1"/>
@@ -1964,20 +2007,19 @@
         <v>16010122034</v>
       </c>
       <c r="E35" t="s">
-        <v>54</v>
-      </c>
-      <c r="F35" t="str" cm="1">
-        <f t="array" aca="1" ref="F35" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-SC</v>
-      </c>
-      <c r="G35" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" t="s">
-        <v>20</v>
+        <v>51</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ35" s="1">
         <f t="shared" ref="DQ35:DQ66" si="3">SUM(DQ34,1)</f>
@@ -1999,20 +2041,19 @@
         <v>16010122035</v>
       </c>
       <c r="E36" t="s">
-        <v>55</v>
-      </c>
-      <c r="F36" t="str" cm="1">
-        <f t="array" aca="1" ref="F36" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-CG</v>
-      </c>
-      <c r="G36" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" t="s">
-        <v>16</v>
-      </c>
-      <c r="I36" t="s">
-        <v>20</v>
+        <v>52</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ36" s="1">
         <f t="shared" si="3"/>
@@ -2034,20 +2075,19 @@
         <v>16010122036</v>
       </c>
       <c r="E37" t="s">
-        <v>56</v>
-      </c>
-      <c r="F37" t="str" cm="1">
-        <f t="array" aca="1" ref="F37" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-CG</v>
-      </c>
-      <c r="G37" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" t="s">
-        <v>16</v>
-      </c>
-      <c r="I37" t="s">
-        <v>20</v>
+        <v>53</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ37" s="1">
         <f t="shared" si="3"/>
@@ -2069,20 +2109,19 @@
         <v>16010122037</v>
       </c>
       <c r="E38" t="s">
-        <v>57</v>
-      </c>
-      <c r="F38" t="str" cm="1">
-        <f t="array" aca="1" ref="F38" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-CG</v>
-      </c>
-      <c r="G38" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" t="s">
-        <v>20</v>
+        <v>54</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ38" s="1">
         <f t="shared" si="3"/>
@@ -2104,20 +2143,19 @@
         <v>16010122038</v>
       </c>
       <c r="E39" t="s">
-        <v>58</v>
-      </c>
-      <c r="F39" t="str" cm="1">
-        <f t="array" aca="1" ref="F39" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-SC</v>
-      </c>
-      <c r="G39" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" t="s">
-        <v>20</v>
+        <v>55</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ39" s="1">
         <f t="shared" si="3"/>
@@ -2139,20 +2177,19 @@
         <v>16010122039</v>
       </c>
       <c r="E40" t="s">
-        <v>59</v>
-      </c>
-      <c r="F40" t="str" cm="1">
-        <f t="array" aca="1" ref="F40" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-SC</v>
-      </c>
-      <c r="G40" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40" t="s">
-        <v>20</v>
+        <v>56</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ40" s="1">
         <f t="shared" si="3"/>
@@ -2174,20 +2211,19 @@
         <v>16010122040</v>
       </c>
       <c r="E41" t="s">
-        <v>60</v>
-      </c>
-      <c r="F41" t="str" cm="1">
-        <f t="array" aca="1" ref="F41" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-CG</v>
-      </c>
-      <c r="G41" t="s">
-        <v>17</v>
-      </c>
-      <c r="H41" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41" t="s">
-        <v>20</v>
+        <v>57</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ41" s="1">
         <f t="shared" si="3"/>
@@ -2209,20 +2245,19 @@
         <v>16010122041</v>
       </c>
       <c r="E42" t="s">
-        <v>61</v>
-      </c>
-      <c r="F42" t="str" cm="1">
-        <f t="array" aca="1" ref="F42" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-SC</v>
-      </c>
-      <c r="G42" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" t="s">
-        <v>16</v>
-      </c>
-      <c r="I42" t="s">
-        <v>20</v>
+        <v>58</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ42" s="1">
         <f t="shared" si="3"/>
@@ -2244,20 +2279,19 @@
         <v>16010122042</v>
       </c>
       <c r="E43" t="s">
-        <v>62</v>
-      </c>
-      <c r="F43" t="str" cm="1">
-        <f t="array" aca="1" ref="F43" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-CG</v>
-      </c>
-      <c r="G43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" t="s">
-        <v>16</v>
-      </c>
-      <c r="I43" t="s">
-        <v>20</v>
+        <v>59</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ43" s="1">
         <f t="shared" si="3"/>
@@ -2279,20 +2313,19 @@
         <v>16010122043</v>
       </c>
       <c r="E44" t="s">
-        <v>63</v>
-      </c>
-      <c r="F44" t="str" cm="1">
-        <f t="array" aca="1" ref="F44" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-SC</v>
-      </c>
-      <c r="G44" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" t="s">
-        <v>16</v>
-      </c>
-      <c r="I44" t="s">
-        <v>20</v>
+        <v>60</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ44" s="1">
         <f t="shared" si="3"/>
@@ -2314,20 +2347,19 @@
         <v>16010122044</v>
       </c>
       <c r="E45" t="s">
-        <v>64</v>
-      </c>
-      <c r="F45" t="str" cm="1">
-        <f t="array" aca="1" ref="F45" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-SC</v>
-      </c>
-      <c r="G45" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45" t="s">
-        <v>16</v>
-      </c>
-      <c r="I45" t="s">
-        <v>20</v>
+        <v>61</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ45" s="1">
         <f t="shared" si="3"/>
@@ -2349,20 +2381,19 @@
         <v>16010122045</v>
       </c>
       <c r="E46" t="s">
-        <v>65</v>
-      </c>
-      <c r="F46" t="str" cm="1">
-        <f t="array" aca="1" ref="F46" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-CG</v>
-      </c>
-      <c r="G46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" t="s">
-        <v>16</v>
-      </c>
-      <c r="I46" t="s">
-        <v>20</v>
+        <v>62</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ46" s="1">
         <f t="shared" si="3"/>
@@ -2384,20 +2415,19 @@
         <v>16010122046</v>
       </c>
       <c r="E47" t="s">
-        <v>66</v>
-      </c>
-      <c r="F47" t="str" cm="1">
-        <f t="array" aca="1" ref="F47" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-SC</v>
-      </c>
-      <c r="G47" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" t="s">
-        <v>16</v>
-      </c>
-      <c r="I47" t="s">
-        <v>20</v>
+        <v>63</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ47" s="1">
         <f t="shared" si="3"/>
@@ -2419,20 +2449,19 @@
         <v>16010122047</v>
       </c>
       <c r="E48" t="s">
-        <v>67</v>
-      </c>
-      <c r="F48" t="str" cm="1">
-        <f t="array" aca="1" ref="F48" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-SC</v>
-      </c>
-      <c r="G48" t="s">
-        <v>17</v>
-      </c>
-      <c r="H48" t="s">
-        <v>16</v>
-      </c>
-      <c r="I48" t="s">
-        <v>20</v>
+        <v>64</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ48" s="1">
         <f t="shared" si="3"/>
@@ -2454,20 +2483,19 @@
         <v>16010122048</v>
       </c>
       <c r="E49" t="s">
-        <v>68</v>
-      </c>
-      <c r="F49" t="str" cm="1">
-        <f t="array" aca="1" ref="F49" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-CG</v>
-      </c>
-      <c r="G49" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49" t="s">
-        <v>16</v>
-      </c>
-      <c r="I49" t="s">
-        <v>20</v>
+        <v>65</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ49" s="1">
         <f t="shared" si="3"/>
@@ -2489,20 +2517,19 @@
         <v>16010122049</v>
       </c>
       <c r="E50" t="s">
-        <v>69</v>
-      </c>
-      <c r="F50" t="str" cm="1">
-        <f t="array" aca="1" ref="F50" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-CG</v>
-      </c>
-      <c r="G50" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50" t="s">
-        <v>16</v>
-      </c>
-      <c r="I50" t="s">
-        <v>20</v>
+        <v>66</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ50" s="1">
         <f t="shared" si="3"/>
@@ -2524,20 +2551,19 @@
         <v>16010122050</v>
       </c>
       <c r="E51" t="s">
-        <v>70</v>
-      </c>
-      <c r="F51" t="str" cm="1">
-        <f t="array" aca="1" ref="F51" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-CG</v>
-      </c>
-      <c r="G51" t="s">
-        <v>17</v>
-      </c>
-      <c r="H51" t="s">
-        <v>16</v>
-      </c>
-      <c r="I51" t="s">
-        <v>20</v>
+        <v>67</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ51" s="1">
         <f t="shared" si="3"/>
@@ -2559,20 +2585,19 @@
         <v>16010122051</v>
       </c>
       <c r="E52" t="s">
-        <v>71</v>
-      </c>
-      <c r="F52" t="str" cm="1">
-        <f t="array" aca="1" ref="F52" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-SC</v>
-      </c>
-      <c r="G52" t="s">
-        <v>17</v>
-      </c>
-      <c r="H52" t="s">
-        <v>16</v>
-      </c>
-      <c r="I52" t="s">
-        <v>20</v>
+        <v>68</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ52" s="1">
         <f t="shared" si="3"/>
@@ -2594,20 +2619,19 @@
         <v>16010122052</v>
       </c>
       <c r="E53" t="s">
-        <v>72</v>
-      </c>
-      <c r="F53" t="str" cm="1">
-        <f t="array" aca="1" ref="F53" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-CG</v>
-      </c>
-      <c r="G53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H53" t="s">
-        <v>16</v>
-      </c>
-      <c r="I53" t="s">
-        <v>20</v>
+        <v>69</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ53" s="1">
         <f t="shared" si="3"/>
@@ -2629,20 +2653,19 @@
         <v>16010122053</v>
       </c>
       <c r="E54" t="s">
-        <v>73</v>
-      </c>
-      <c r="F54" t="str" cm="1">
-        <f t="array" aca="1" ref="F54" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-CG</v>
-      </c>
-      <c r="G54" t="s">
-        <v>17</v>
-      </c>
-      <c r="H54" t="s">
-        <v>16</v>
-      </c>
-      <c r="I54" t="s">
-        <v>20</v>
+        <v>70</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ54" s="1">
         <f t="shared" si="3"/>
@@ -2664,20 +2687,19 @@
         <v>16010122054</v>
       </c>
       <c r="E55" t="s">
-        <v>74</v>
-      </c>
-      <c r="F55" t="str" cm="1">
-        <f t="array" aca="1" ref="F55" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-CG</v>
-      </c>
-      <c r="G55" t="s">
-        <v>17</v>
-      </c>
-      <c r="H55" t="s">
-        <v>16</v>
-      </c>
-      <c r="I55" t="s">
-        <v>20</v>
+        <v>71</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ55" s="1">
         <f t="shared" si="3"/>
@@ -2699,20 +2721,19 @@
         <v>16010122055</v>
       </c>
       <c r="E56" t="s">
-        <v>75</v>
-      </c>
-      <c r="F56" t="str" cm="1">
-        <f t="array" aca="1" ref="F56" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-CG</v>
-      </c>
-      <c r="G56" t="s">
-        <v>17</v>
-      </c>
-      <c r="H56" t="s">
-        <v>16</v>
-      </c>
-      <c r="I56" t="s">
-        <v>20</v>
+        <v>72</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ56" s="1">
         <f t="shared" si="3"/>
@@ -2734,20 +2755,19 @@
         <v>16010122056</v>
       </c>
       <c r="E57" t="s">
-        <v>76</v>
-      </c>
-      <c r="F57" t="str" cm="1">
-        <f t="array" aca="1" ref="F57" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-CG</v>
-      </c>
-      <c r="G57" t="s">
-        <v>17</v>
-      </c>
-      <c r="H57" t="s">
-        <v>16</v>
-      </c>
-      <c r="I57" t="s">
-        <v>20</v>
+        <v>73</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ57" s="1">
         <f t="shared" si="3"/>
@@ -2769,20 +2789,19 @@
         <v>16010122057</v>
       </c>
       <c r="E58" t="s">
-        <v>77</v>
-      </c>
-      <c r="F58" t="str" cm="1">
-        <f t="array" aca="1" ref="F58" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-SC</v>
-      </c>
-      <c r="G58" t="s">
-        <v>17</v>
-      </c>
-      <c r="H58" t="s">
-        <v>16</v>
-      </c>
-      <c r="I58" t="s">
-        <v>20</v>
+        <v>74</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I58" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ58" s="1">
         <f t="shared" si="3"/>
@@ -2804,20 +2823,19 @@
         <v>16010122058</v>
       </c>
       <c r="E59" t="s">
-        <v>78</v>
-      </c>
-      <c r="F59" t="str" cm="1">
-        <f t="array" aca="1" ref="F59" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-SC</v>
-      </c>
-      <c r="G59" t="s">
-        <v>17</v>
-      </c>
-      <c r="H59" t="s">
-        <v>16</v>
-      </c>
-      <c r="I59" t="s">
-        <v>20</v>
+        <v>75</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ59" s="1">
         <f t="shared" si="3"/>
@@ -2839,20 +2857,19 @@
         <v>16010122059</v>
       </c>
       <c r="E60" t="s">
-        <v>79</v>
-      </c>
-      <c r="F60" t="str" cm="1">
-        <f t="array" aca="1" ref="F60" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-SC</v>
-      </c>
-      <c r="G60" t="s">
-        <v>17</v>
-      </c>
-      <c r="H60" t="s">
-        <v>16</v>
-      </c>
-      <c r="I60" t="s">
-        <v>20</v>
+        <v>76</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I60" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ60" s="1">
         <f t="shared" si="3"/>
@@ -2874,20 +2891,19 @@
         <v>16010122060</v>
       </c>
       <c r="E61" t="s">
-        <v>80</v>
-      </c>
-      <c r="F61" t="str" cm="1">
-        <f t="array" aca="1" ref="F61" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-SC</v>
-      </c>
-      <c r="G61" t="s">
-        <v>17</v>
-      </c>
-      <c r="H61" t="s">
-        <v>16</v>
-      </c>
-      <c r="I61" t="s">
-        <v>20</v>
+        <v>77</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I61" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ61" s="1">
         <f t="shared" si="3"/>
@@ -2909,20 +2925,19 @@
         <v>16010122061</v>
       </c>
       <c r="E62" t="s">
-        <v>81</v>
-      </c>
-      <c r="F62" t="str" cm="1">
-        <f t="array" aca="1" ref="F62" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-SC</v>
-      </c>
-      <c r="G62" t="s">
-        <v>17</v>
-      </c>
-      <c r="H62" t="s">
-        <v>16</v>
-      </c>
-      <c r="I62" t="s">
-        <v>20</v>
+        <v>78</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I62" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ62" s="1">
         <f t="shared" si="3"/>
@@ -2944,20 +2959,19 @@
         <v>16010122062</v>
       </c>
       <c r="E63" t="s">
-        <v>82</v>
-      </c>
-      <c r="F63" t="str" cm="1">
-        <f t="array" aca="1" ref="F63" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-SC</v>
-      </c>
-      <c r="G63" t="s">
-        <v>17</v>
-      </c>
-      <c r="H63" t="s">
-        <v>16</v>
-      </c>
-      <c r="I63" t="s">
-        <v>20</v>
+        <v>79</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I63" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ63" s="1">
         <f t="shared" si="3"/>
@@ -2979,20 +2993,19 @@
         <v>16010122063</v>
       </c>
       <c r="E64" t="s">
-        <v>83</v>
-      </c>
-      <c r="F64" t="str" cm="1">
-        <f t="array" aca="1" ref="F64" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-SC</v>
-      </c>
-      <c r="G64" t="s">
-        <v>17</v>
-      </c>
-      <c r="H64" t="s">
-        <v>16</v>
-      </c>
-      <c r="I64" t="s">
-        <v>20</v>
+        <v>80</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I64" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ64" s="1">
         <f t="shared" si="3"/>
@@ -3014,20 +3027,19 @@
         <v>16010122064</v>
       </c>
       <c r="E65" t="s">
-        <v>84</v>
-      </c>
-      <c r="F65" t="str" cm="1">
-        <f t="array" aca="1" ref="F65" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-CG</v>
-      </c>
-      <c r="G65" t="s">
-        <v>17</v>
-      </c>
-      <c r="H65" t="s">
-        <v>16</v>
-      </c>
-      <c r="I65" t="s">
-        <v>20</v>
+        <v>81</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I65" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ65" s="1">
         <f t="shared" si="3"/>
@@ -3049,20 +3061,19 @@
         <v>16010122065</v>
       </c>
       <c r="E66" t="s">
-        <v>85</v>
-      </c>
-      <c r="F66" t="str" cm="1">
-        <f t="array" aca="1" ref="F66" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-CG</v>
-      </c>
-      <c r="G66" t="s">
-        <v>17</v>
-      </c>
-      <c r="H66" t="s">
-        <v>16</v>
-      </c>
-      <c r="I66" t="s">
-        <v>20</v>
+        <v>82</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I66" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ66" s="1">
         <f t="shared" si="3"/>
@@ -3084,20 +3095,19 @@
         <v>16010122066</v>
       </c>
       <c r="E67" t="s">
-        <v>86</v>
-      </c>
-      <c r="F67" t="str" cm="1">
-        <f t="array" aca="1" ref="F67" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-SC</v>
-      </c>
-      <c r="G67" t="s">
-        <v>17</v>
-      </c>
-      <c r="H67" t="s">
-        <v>16</v>
-      </c>
-      <c r="I67" t="s">
-        <v>20</v>
+        <v>83</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H67" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I67" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ67" s="1">
         <f t="shared" ref="DQ67:DQ81" si="5">SUM(DQ66,1)</f>
@@ -3119,20 +3129,19 @@
         <v>16010122067</v>
       </c>
       <c r="E68" t="s">
-        <v>87</v>
-      </c>
-      <c r="F68" t="str" cm="1">
-        <f t="array" aca="1" ref="F68" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-CG</v>
-      </c>
-      <c r="G68" t="s">
-        <v>17</v>
-      </c>
-      <c r="H68" t="s">
-        <v>16</v>
-      </c>
-      <c r="I68" t="s">
-        <v>20</v>
+        <v>84</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I68" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ68" s="1">
         <f t="shared" si="5"/>
@@ -3154,20 +3163,19 @@
         <v>16010122068</v>
       </c>
       <c r="E69" t="s">
-        <v>88</v>
-      </c>
-      <c r="F69" t="str" cm="1">
-        <f t="array" aca="1" ref="F69" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-SC</v>
-      </c>
-      <c r="G69" t="s">
-        <v>17</v>
-      </c>
-      <c r="H69" t="s">
-        <v>16</v>
-      </c>
-      <c r="I69" t="s">
-        <v>20</v>
+        <v>85</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I69" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ69" s="1">
         <f t="shared" si="5"/>
@@ -3189,20 +3197,19 @@
         <v>16010122069</v>
       </c>
       <c r="E70" t="s">
-        <v>89</v>
-      </c>
-      <c r="F70" t="str" cm="1">
-        <f t="array" aca="1" ref="F70" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-SC</v>
-      </c>
-      <c r="G70" t="s">
-        <v>17</v>
-      </c>
-      <c r="H70" t="s">
-        <v>16</v>
-      </c>
-      <c r="I70" t="s">
-        <v>20</v>
+        <v>86</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I70" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ70" s="1">
         <f t="shared" si="5"/>
@@ -3224,20 +3231,19 @@
         <v>16010122070</v>
       </c>
       <c r="E71" t="s">
-        <v>90</v>
-      </c>
-      <c r="F71" t="str" cm="1">
-        <f t="array" aca="1" ref="F71" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-CG</v>
-      </c>
-      <c r="G71" t="s">
-        <v>17</v>
-      </c>
-      <c r="H71" t="s">
-        <v>16</v>
-      </c>
-      <c r="I71" t="s">
-        <v>20</v>
+        <v>87</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I71" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ71" s="1">
         <f t="shared" si="5"/>
@@ -3259,20 +3265,19 @@
         <v>16010122071</v>
       </c>
       <c r="E72" t="s">
-        <v>91</v>
-      </c>
-      <c r="F72" t="str" cm="1">
-        <f t="array" aca="1" ref="F72" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-SC</v>
-      </c>
-      <c r="G72" t="s">
-        <v>17</v>
-      </c>
-      <c r="H72" t="s">
-        <v>16</v>
-      </c>
-      <c r="I72" t="s">
-        <v>20</v>
+        <v>88</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I72" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ72" s="1">
         <f t="shared" si="5"/>
@@ -3294,20 +3299,19 @@
         <v>16010122072</v>
       </c>
       <c r="E73" t="s">
-        <v>92</v>
-      </c>
-      <c r="F73" t="str" cm="1">
-        <f t="array" aca="1" ref="F73" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-CG</v>
-      </c>
-      <c r="G73" t="s">
-        <v>17</v>
-      </c>
-      <c r="H73" t="s">
-        <v>16</v>
-      </c>
-      <c r="I73" t="s">
-        <v>20</v>
+        <v>89</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I73" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ73" s="1">
         <f t="shared" si="5"/>
@@ -3329,20 +3333,19 @@
         <v>16010122073</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F74" t="str" cm="1">
-        <f t="array" aca="1" ref="F74" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-SC</v>
-      </c>
-      <c r="G74" t="s">
-        <v>17</v>
-      </c>
-      <c r="H74" t="s">
-        <v>16</v>
-      </c>
-      <c r="I74" t="s">
-        <v>20</v>
+        <v>90</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I74" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ74" s="1">
         <f t="shared" si="5"/>
@@ -3364,20 +3367,19 @@
         <v>16010122074</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F75" t="str" cm="1">
-        <f t="array" aca="1" ref="F75" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-SC</v>
-      </c>
-      <c r="G75" t="s">
-        <v>17</v>
-      </c>
-      <c r="H75" t="s">
-        <v>16</v>
-      </c>
-      <c r="I75" t="s">
-        <v>20</v>
+        <v>91</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I75" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ75" s="1">
         <f t="shared" si="5"/>
@@ -3399,20 +3401,19 @@
         <v>16010122075</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F76" t="str" cm="1">
-        <f t="array" aca="1" ref="F76" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-SC</v>
-      </c>
-      <c r="G76" t="s">
-        <v>17</v>
-      </c>
-      <c r="H76" t="s">
-        <v>16</v>
-      </c>
-      <c r="I76" t="s">
-        <v>20</v>
+        <v>92</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H76" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I76" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ76" s="1">
         <f t="shared" si="5"/>
@@ -3434,20 +3435,19 @@
         <v>16010122076</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F77" t="str" cm="1">
-        <f t="array" aca="1" ref="F77" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-CG</v>
-      </c>
-      <c r="G77" t="s">
-        <v>17</v>
-      </c>
-      <c r="H77" t="s">
-        <v>16</v>
-      </c>
-      <c r="I77" t="s">
-        <v>20</v>
+        <v>93</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H77" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I77" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ77" s="1">
         <f t="shared" si="5"/>
@@ -3469,20 +3469,19 @@
         <v>16010122077</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F78" t="str" cm="1">
-        <f t="array" aca="1" ref="F78" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-SC</v>
-      </c>
-      <c r="G78" t="s">
-        <v>17</v>
-      </c>
-      <c r="H78" t="s">
-        <v>16</v>
-      </c>
-      <c r="I78" t="s">
-        <v>20</v>
+        <v>94</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I78" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ78" s="1">
         <f t="shared" si="5"/>
@@ -3504,20 +3503,19 @@
         <v>16010122078</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F79" t="str" cm="1">
-        <f t="array" aca="1" ref="F79" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-CG</v>
-      </c>
-      <c r="G79" t="s">
-        <v>17</v>
-      </c>
-      <c r="H79" t="s">
-        <v>16</v>
-      </c>
-      <c r="I79" t="s">
-        <v>20</v>
+        <v>95</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H79" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I79" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ79" s="1">
         <f t="shared" si="5"/>
@@ -3539,20 +3537,19 @@
         <v>16010122079</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F80" t="str" cm="1">
-        <f t="array" aca="1" ref="F80" ca="1">INDEX($CV$32:$CV$33, RANDBETWEEN(1, 2))</f>
-        <v>E-CG</v>
-      </c>
-      <c r="G80" t="s">
-        <v>17</v>
-      </c>
-      <c r="H80" t="s">
-        <v>16</v>
-      </c>
-      <c r="I80" t="s">
-        <v>20</v>
+        <v>96</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H80" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I80" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ80" s="1">
         <f t="shared" si="5"/>
@@ -3574,19 +3571,19 @@
         <v>16010122080</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s">
-        <v>17</v>
-      </c>
-      <c r="H81" t="s">
-        <v>16</v>
-      </c>
-      <c r="I81" t="s">
-        <v>20</v>
+        <v>97</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H81" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I81" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="DQ81" s="1">
         <f t="shared" si="5"/>
@@ -3608,19 +3605,19 @@
         <v>16010123001</v>
       </c>
       <c r="E82" t="s">
-        <v>21</v>
-      </c>
-      <c r="F82" t="s">
-        <v>103</v>
-      </c>
-      <c r="G82" t="s">
-        <v>104</v>
-      </c>
-      <c r="H82" t="s">
-        <v>105</v>
-      </c>
-      <c r="I82" t="s">
-        <v>106</v>
+        <v>18</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G82" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="H82" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="I82" s="19" t="s">
+        <v>112</v>
       </c>
       <c r="DQ82" s="1">
         <v>16010123001</v>
@@ -3641,22 +3638,22 @@
         <v>16010123002</v>
       </c>
       <c r="E83" t="s">
-        <v>22</v>
-      </c>
-      <c r="F83" t="s">
-        <v>103</v>
-      </c>
-      <c r="G83" t="s">
-        <v>104</v>
-      </c>
-      <c r="H83" t="s">
-        <v>105</v>
-      </c>
-      <c r="I83" t="s">
-        <v>106</v>
+        <v>19</v>
+      </c>
+      <c r="F83" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G83" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H83" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="I83" s="20" t="s">
+        <v>112</v>
       </c>
       <c r="DQ83" s="1">
-        <f>SUM(DQ82,1)</f>
+        <f t="shared" ref="DQ83:DQ114" si="6">SUM(DQ82,1)</f>
         <v>16010123002</v>
       </c>
     </row>
@@ -3675,22 +3672,22 @@
         <v>16010123003</v>
       </c>
       <c r="E84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F84" t="s">
-        <v>103</v>
-      </c>
-      <c r="G84" t="s">
-        <v>104</v>
-      </c>
-      <c r="H84" t="s">
-        <v>105</v>
-      </c>
-      <c r="I84" t="s">
-        <v>106</v>
+        <v>20</v>
+      </c>
+      <c r="F84" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G84" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H84" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I84" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ84" s="1">
-        <f>SUM(DQ83,1)</f>
+        <f t="shared" si="6"/>
         <v>16010123003</v>
       </c>
     </row>
@@ -3709,22 +3706,22 @@
         <v>16010123004</v>
       </c>
       <c r="E85" t="s">
-        <v>24</v>
-      </c>
-      <c r="F85" t="s">
-        <v>103</v>
-      </c>
-      <c r="G85" t="s">
-        <v>104</v>
-      </c>
-      <c r="H85" t="s">
-        <v>105</v>
-      </c>
-      <c r="I85" t="s">
-        <v>106</v>
+        <v>21</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G85" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H85" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I85" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ85" s="1">
-        <f>SUM(DQ84,1)</f>
+        <f t="shared" si="6"/>
         <v>16010123004</v>
       </c>
     </row>
@@ -3743,22 +3740,22 @@
         <v>16010123005</v>
       </c>
       <c r="E86" t="s">
-        <v>25</v>
-      </c>
-      <c r="F86" t="s">
-        <v>103</v>
-      </c>
-      <c r="G86" t="s">
-        <v>104</v>
-      </c>
-      <c r="H86" t="s">
-        <v>105</v>
-      </c>
-      <c r="I86" t="s">
-        <v>106</v>
+        <v>22</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G86" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H86" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I86" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ86" s="1">
-        <f>SUM(DQ85,1)</f>
+        <f t="shared" si="6"/>
         <v>16010123005</v>
       </c>
     </row>
@@ -3777,22 +3774,22 @@
         <v>16010123006</v>
       </c>
       <c r="E87" t="s">
-        <v>26</v>
-      </c>
-      <c r="F87" t="s">
-        <v>103</v>
-      </c>
-      <c r="G87" t="s">
-        <v>104</v>
-      </c>
-      <c r="H87" t="s">
-        <v>105</v>
-      </c>
-      <c r="I87" t="s">
-        <v>106</v>
+        <v>23</v>
+      </c>
+      <c r="F87" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G87" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H87" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I87" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ87" s="1">
-        <f>SUM(DQ86,1)</f>
+        <f t="shared" si="6"/>
         <v>16010123006</v>
       </c>
     </row>
@@ -3811,22 +3808,22 @@
         <v>16010123007</v>
       </c>
       <c r="E88" t="s">
-        <v>27</v>
-      </c>
-      <c r="F88" t="s">
-        <v>103</v>
-      </c>
-      <c r="G88" t="s">
-        <v>104</v>
-      </c>
-      <c r="H88" t="s">
-        <v>105</v>
-      </c>
-      <c r="I88" t="s">
-        <v>106</v>
+        <v>24</v>
+      </c>
+      <c r="F88" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G88" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H88" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I88" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ88" s="1">
-        <f>SUM(DQ87,1)</f>
+        <f t="shared" si="6"/>
         <v>16010123007</v>
       </c>
     </row>
@@ -3845,22 +3842,22 @@
         <v>16010123008</v>
       </c>
       <c r="E89" t="s">
-        <v>28</v>
-      </c>
-      <c r="F89" t="s">
-        <v>103</v>
-      </c>
-      <c r="G89" t="s">
-        <v>104</v>
-      </c>
-      <c r="H89" t="s">
-        <v>105</v>
-      </c>
-      <c r="I89" t="s">
-        <v>106</v>
+        <v>25</v>
+      </c>
+      <c r="F89" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G89" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H89" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I89" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ89" s="1">
-        <f>SUM(DQ88,1)</f>
+        <f t="shared" si="6"/>
         <v>16010123008</v>
       </c>
     </row>
@@ -3879,22 +3876,22 @@
         <v>16010123009</v>
       </c>
       <c r="E90" t="s">
-        <v>29</v>
-      </c>
-      <c r="F90" t="s">
-        <v>103</v>
-      </c>
-      <c r="G90" t="s">
-        <v>104</v>
-      </c>
-      <c r="H90" t="s">
-        <v>105</v>
-      </c>
-      <c r="I90" t="s">
-        <v>106</v>
+        <v>26</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G90" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H90" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I90" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ90" s="1">
-        <f>SUM(DQ89,1)</f>
+        <f t="shared" si="6"/>
         <v>16010123009</v>
       </c>
     </row>
@@ -3913,22 +3910,22 @@
         <v>16010123010</v>
       </c>
       <c r="E91" t="s">
-        <v>30</v>
-      </c>
-      <c r="F91" t="s">
-        <v>103</v>
-      </c>
-      <c r="G91" t="s">
-        <v>104</v>
-      </c>
-      <c r="H91" t="s">
-        <v>105</v>
-      </c>
-      <c r="I91" t="s">
-        <v>106</v>
+        <v>27</v>
+      </c>
+      <c r="F91" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G91" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H91" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I91" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ91" s="1">
-        <f>SUM(DQ90,1)</f>
+        <f t="shared" si="6"/>
         <v>16010123010</v>
       </c>
     </row>
@@ -3947,22 +3944,22 @@
         <v>16010123011</v>
       </c>
       <c r="E92" t="s">
-        <v>31</v>
-      </c>
-      <c r="F92" t="s">
-        <v>103</v>
-      </c>
-      <c r="G92" t="s">
-        <v>104</v>
-      </c>
-      <c r="H92" t="s">
-        <v>105</v>
-      </c>
-      <c r="I92" t="s">
-        <v>106</v>
+        <v>28</v>
+      </c>
+      <c r="F92" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G92" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H92" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I92" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ92" s="1">
-        <f>SUM(DQ91,1)</f>
+        <f t="shared" si="6"/>
         <v>16010123011</v>
       </c>
     </row>
@@ -3981,22 +3978,22 @@
         <v>16010123012</v>
       </c>
       <c r="E93" t="s">
-        <v>32</v>
-      </c>
-      <c r="F93" t="s">
-        <v>103</v>
-      </c>
-      <c r="G93" t="s">
-        <v>104</v>
-      </c>
-      <c r="H93" t="s">
-        <v>105</v>
-      </c>
-      <c r="I93" t="s">
-        <v>106</v>
+        <v>29</v>
+      </c>
+      <c r="F93" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G93" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H93" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I93" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ93" s="1">
-        <f>SUM(DQ92,1)</f>
+        <f t="shared" si="6"/>
         <v>16010123012</v>
       </c>
     </row>
@@ -4015,22 +4012,22 @@
         <v>16010123013</v>
       </c>
       <c r="E94" t="s">
-        <v>33</v>
-      </c>
-      <c r="F94" t="s">
-        <v>103</v>
-      </c>
-      <c r="G94" t="s">
-        <v>104</v>
-      </c>
-      <c r="H94" t="s">
-        <v>105</v>
-      </c>
-      <c r="I94" t="s">
-        <v>106</v>
+        <v>30</v>
+      </c>
+      <c r="F94" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G94" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H94" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I94" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ94" s="1">
-        <f>SUM(DQ93,1)</f>
+        <f t="shared" si="6"/>
         <v>16010123013</v>
       </c>
     </row>
@@ -4049,22 +4046,22 @@
         <v>16010123014</v>
       </c>
       <c r="E95" t="s">
-        <v>34</v>
-      </c>
-      <c r="F95" t="s">
-        <v>103</v>
-      </c>
-      <c r="G95" t="s">
-        <v>104</v>
-      </c>
-      <c r="H95" t="s">
-        <v>105</v>
-      </c>
-      <c r="I95" t="s">
-        <v>106</v>
+        <v>31</v>
+      </c>
+      <c r="F95" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G95" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H95" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I95" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ95" s="1">
-        <f>SUM(DQ94,1)</f>
+        <f t="shared" si="6"/>
         <v>16010123014</v>
       </c>
     </row>
@@ -4083,22 +4080,22 @@
         <v>16010123015</v>
       </c>
       <c r="E96" t="s">
-        <v>35</v>
-      </c>
-      <c r="F96" t="s">
-        <v>103</v>
-      </c>
-      <c r="G96" t="s">
-        <v>104</v>
-      </c>
-      <c r="H96" t="s">
-        <v>105</v>
-      </c>
-      <c r="I96" t="s">
-        <v>106</v>
+        <v>32</v>
+      </c>
+      <c r="F96" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G96" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H96" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I96" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ96" s="1">
-        <f>SUM(DQ95,1)</f>
+        <f t="shared" si="6"/>
         <v>16010123015</v>
       </c>
     </row>
@@ -4117,22 +4114,22 @@
         <v>16010123016</v>
       </c>
       <c r="E97" t="s">
-        <v>36</v>
-      </c>
-      <c r="F97" t="s">
-        <v>103</v>
-      </c>
-      <c r="G97" t="s">
-        <v>104</v>
-      </c>
-      <c r="H97" t="s">
-        <v>105</v>
-      </c>
-      <c r="I97" t="s">
-        <v>106</v>
+        <v>33</v>
+      </c>
+      <c r="F97" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G97" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H97" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I97" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ97" s="1">
-        <f>SUM(DQ96,1)</f>
+        <f t="shared" si="6"/>
         <v>16010123016</v>
       </c>
     </row>
@@ -4151,22 +4148,22 @@
         <v>16010123017</v>
       </c>
       <c r="E98" t="s">
-        <v>37</v>
-      </c>
-      <c r="F98" t="s">
-        <v>103</v>
-      </c>
-      <c r="G98" t="s">
-        <v>104</v>
-      </c>
-      <c r="H98" t="s">
-        <v>105</v>
-      </c>
-      <c r="I98" t="s">
-        <v>106</v>
+        <v>34</v>
+      </c>
+      <c r="F98" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G98" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H98" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I98" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ98" s="1">
-        <f>SUM(DQ97,1)</f>
+        <f t="shared" si="6"/>
         <v>16010123017</v>
       </c>
     </row>
@@ -4185,22 +4182,22 @@
         <v>16010123018</v>
       </c>
       <c r="E99" t="s">
-        <v>38</v>
-      </c>
-      <c r="F99" t="s">
-        <v>103</v>
-      </c>
-      <c r="G99" t="s">
-        <v>104</v>
-      </c>
-      <c r="H99" t="s">
-        <v>105</v>
-      </c>
-      <c r="I99" t="s">
-        <v>106</v>
+        <v>35</v>
+      </c>
+      <c r="F99" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G99" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H99" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I99" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ99" s="1">
-        <f>SUM(DQ98,1)</f>
+        <f t="shared" si="6"/>
         <v>16010123018</v>
       </c>
     </row>
@@ -4219,22 +4216,22 @@
         <v>16010123019</v>
       </c>
       <c r="E100" t="s">
-        <v>39</v>
-      </c>
-      <c r="F100" t="s">
-        <v>103</v>
-      </c>
-      <c r="G100" t="s">
-        <v>104</v>
-      </c>
-      <c r="H100" t="s">
-        <v>105</v>
-      </c>
-      <c r="I100" t="s">
-        <v>106</v>
+        <v>36</v>
+      </c>
+      <c r="F100" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G100" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H100" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I100" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ100" s="1">
-        <f>SUM(DQ99,1)</f>
+        <f t="shared" si="6"/>
         <v>16010123019</v>
       </c>
     </row>
@@ -4253,22 +4250,22 @@
         <v>16010123020</v>
       </c>
       <c r="E101" t="s">
-        <v>40</v>
-      </c>
-      <c r="F101" t="s">
-        <v>103</v>
-      </c>
-      <c r="G101" t="s">
-        <v>104</v>
-      </c>
-      <c r="H101" t="s">
-        <v>105</v>
-      </c>
-      <c r="I101" t="s">
-        <v>106</v>
+        <v>37</v>
+      </c>
+      <c r="F101" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G101" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H101" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I101" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ101" s="1">
-        <f>SUM(DQ100,1)</f>
+        <f t="shared" si="6"/>
         <v>16010123020</v>
       </c>
     </row>
@@ -4287,22 +4284,22 @@
         <v>16010123021</v>
       </c>
       <c r="E102" t="s">
-        <v>41</v>
-      </c>
-      <c r="F102" t="s">
-        <v>103</v>
-      </c>
-      <c r="G102" t="s">
-        <v>104</v>
-      </c>
-      <c r="H102" t="s">
-        <v>105</v>
-      </c>
-      <c r="I102" t="s">
-        <v>106</v>
+        <v>38</v>
+      </c>
+      <c r="F102" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G102" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H102" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I102" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ102" s="1">
-        <f>SUM(DQ101,1)</f>
+        <f t="shared" si="6"/>
         <v>16010123021</v>
       </c>
     </row>
@@ -4321,22 +4318,22 @@
         <v>16010123022</v>
       </c>
       <c r="E103" t="s">
-        <v>42</v>
-      </c>
-      <c r="F103" t="s">
-        <v>103</v>
-      </c>
-      <c r="G103" t="s">
-        <v>104</v>
-      </c>
-      <c r="H103" t="s">
-        <v>105</v>
-      </c>
-      <c r="I103" t="s">
-        <v>106</v>
+        <v>39</v>
+      </c>
+      <c r="F103" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G103" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H103" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I103" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ103" s="1">
-        <f>SUM(DQ102,1)</f>
+        <f t="shared" si="6"/>
         <v>16010123022</v>
       </c>
     </row>
@@ -4355,22 +4352,22 @@
         <v>16010123023</v>
       </c>
       <c r="E104" t="s">
-        <v>43</v>
-      </c>
-      <c r="F104" t="s">
-        <v>103</v>
-      </c>
-      <c r="G104" t="s">
-        <v>104</v>
-      </c>
-      <c r="H104" t="s">
-        <v>105</v>
-      </c>
-      <c r="I104" t="s">
-        <v>106</v>
+        <v>40</v>
+      </c>
+      <c r="F104" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G104" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H104" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I104" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ104" s="1">
-        <f>SUM(DQ103,1)</f>
+        <f t="shared" si="6"/>
         <v>16010123023</v>
       </c>
     </row>
@@ -4389,22 +4386,22 @@
         <v>16010123024</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
-      </c>
-      <c r="F105" t="s">
-        <v>103</v>
-      </c>
-      <c r="G105" t="s">
-        <v>104</v>
-      </c>
-      <c r="H105" t="s">
-        <v>105</v>
-      </c>
-      <c r="I105" t="s">
-        <v>106</v>
+        <v>41</v>
+      </c>
+      <c r="F105" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G105" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H105" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I105" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ105" s="1">
-        <f>SUM(DQ104,1)</f>
+        <f t="shared" si="6"/>
         <v>16010123024</v>
       </c>
     </row>
@@ -4423,22 +4420,22 @@
         <v>16010123025</v>
       </c>
       <c r="E106" t="s">
-        <v>45</v>
-      </c>
-      <c r="F106" t="s">
-        <v>103</v>
-      </c>
-      <c r="G106" t="s">
-        <v>104</v>
-      </c>
-      <c r="H106" t="s">
-        <v>105</v>
-      </c>
-      <c r="I106" t="s">
-        <v>106</v>
+        <v>42</v>
+      </c>
+      <c r="F106" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G106" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H106" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I106" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ106" s="1">
-        <f>SUM(DQ105,1)</f>
+        <f t="shared" si="6"/>
         <v>16010123025</v>
       </c>
     </row>
@@ -4457,22 +4454,22 @@
         <v>16010123026</v>
       </c>
       <c r="E107" t="s">
-        <v>46</v>
-      </c>
-      <c r="F107" t="s">
-        <v>103</v>
-      </c>
-      <c r="G107" t="s">
-        <v>104</v>
-      </c>
-      <c r="H107" t="s">
-        <v>105</v>
-      </c>
-      <c r="I107" t="s">
-        <v>106</v>
+        <v>43</v>
+      </c>
+      <c r="F107" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G107" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H107" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I107" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ107" s="1">
-        <f>SUM(DQ106,1)</f>
+        <f t="shared" si="6"/>
         <v>16010123026</v>
       </c>
     </row>
@@ -4491,22 +4488,22 @@
         <v>16010123027</v>
       </c>
       <c r="E108" t="s">
-        <v>47</v>
-      </c>
-      <c r="F108" t="s">
-        <v>103</v>
-      </c>
-      <c r="G108" t="s">
-        <v>104</v>
-      </c>
-      <c r="H108" t="s">
-        <v>105</v>
-      </c>
-      <c r="I108" t="s">
-        <v>106</v>
+        <v>44</v>
+      </c>
+      <c r="F108" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G108" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H108" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I108" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ108" s="1">
-        <f>SUM(DQ107,1)</f>
+        <f t="shared" si="6"/>
         <v>16010123027</v>
       </c>
     </row>
@@ -4525,22 +4522,22 @@
         <v>16010123028</v>
       </c>
       <c r="E109" t="s">
-        <v>48</v>
-      </c>
-      <c r="F109" t="s">
-        <v>103</v>
-      </c>
-      <c r="G109" t="s">
-        <v>104</v>
-      </c>
-      <c r="H109" t="s">
-        <v>105</v>
-      </c>
-      <c r="I109" t="s">
-        <v>106</v>
+        <v>45</v>
+      </c>
+      <c r="F109" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G109" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H109" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I109" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ109" s="1">
-        <f>SUM(DQ108,1)</f>
+        <f t="shared" si="6"/>
         <v>16010123028</v>
       </c>
     </row>
@@ -4559,22 +4556,22 @@
         <v>16010123029</v>
       </c>
       <c r="E110" t="s">
-        <v>49</v>
-      </c>
-      <c r="F110" t="s">
-        <v>103</v>
-      </c>
-      <c r="G110" t="s">
-        <v>104</v>
-      </c>
-      <c r="H110" t="s">
-        <v>105</v>
-      </c>
-      <c r="I110" t="s">
-        <v>106</v>
+        <v>46</v>
+      </c>
+      <c r="F110" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G110" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H110" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I110" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ110" s="1">
-        <f>SUM(DQ109,1)</f>
+        <f t="shared" si="6"/>
         <v>16010123029</v>
       </c>
     </row>
@@ -4593,22 +4590,22 @@
         <v>16010123030</v>
       </c>
       <c r="E111" t="s">
-        <v>50</v>
-      </c>
-      <c r="F111" t="s">
-        <v>103</v>
-      </c>
-      <c r="G111" t="s">
-        <v>104</v>
-      </c>
-      <c r="H111" t="s">
-        <v>105</v>
-      </c>
-      <c r="I111" t="s">
-        <v>106</v>
+        <v>47</v>
+      </c>
+      <c r="F111" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G111" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H111" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I111" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ111" s="1">
-        <f>SUM(DQ110,1)</f>
+        <f t="shared" si="6"/>
         <v>16010123030</v>
       </c>
     </row>
@@ -4627,22 +4624,22 @@
         <v>16010123031</v>
       </c>
       <c r="E112" t="s">
-        <v>51</v>
-      </c>
-      <c r="F112" t="s">
-        <v>103</v>
-      </c>
-      <c r="G112" t="s">
-        <v>104</v>
-      </c>
-      <c r="H112" t="s">
-        <v>105</v>
-      </c>
-      <c r="I112" t="s">
-        <v>106</v>
+        <v>48</v>
+      </c>
+      <c r="F112" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G112" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H112" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I112" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ112" s="1">
-        <f>SUM(DQ111,1)</f>
+        <f t="shared" si="6"/>
         <v>16010123031</v>
       </c>
     </row>
@@ -4661,22 +4658,22 @@
         <v>16010123032</v>
       </c>
       <c r="E113" t="s">
-        <v>52</v>
-      </c>
-      <c r="F113" t="s">
-        <v>103</v>
-      </c>
-      <c r="G113" t="s">
-        <v>104</v>
-      </c>
-      <c r="H113" t="s">
-        <v>105</v>
-      </c>
-      <c r="I113" t="s">
-        <v>106</v>
+        <v>49</v>
+      </c>
+      <c r="F113" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G113" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H113" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I113" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ113" s="1">
-        <f>SUM(DQ112,1)</f>
+        <f t="shared" si="6"/>
         <v>16010123032</v>
       </c>
     </row>
@@ -4695,22 +4692,22 @@
         <v>16010123033</v>
       </c>
       <c r="E114" t="s">
-        <v>53</v>
-      </c>
-      <c r="F114" t="s">
-        <v>103</v>
-      </c>
-      <c r="G114" t="s">
-        <v>104</v>
-      </c>
-      <c r="H114" t="s">
-        <v>105</v>
-      </c>
-      <c r="I114" t="s">
-        <v>106</v>
+        <v>50</v>
+      </c>
+      <c r="F114" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G114" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H114" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I114" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ114" s="1">
-        <f>SUM(DQ113,1)</f>
+        <f t="shared" si="6"/>
         <v>16010123033</v>
       </c>
     </row>
@@ -4729,22 +4726,22 @@
         <v>16010123034</v>
       </c>
       <c r="E115" t="s">
-        <v>54</v>
-      </c>
-      <c r="F115" t="s">
-        <v>103</v>
-      </c>
-      <c r="G115" t="s">
-        <v>104</v>
-      </c>
-      <c r="H115" t="s">
-        <v>105</v>
-      </c>
-      <c r="I115" t="s">
-        <v>106</v>
+        <v>51</v>
+      </c>
+      <c r="F115" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G115" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H115" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I115" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ115" s="1">
-        <f>SUM(DQ114,1)</f>
+        <f t="shared" ref="DQ115:DQ146" si="7">SUM(DQ114,1)</f>
         <v>16010123034</v>
       </c>
     </row>
@@ -4763,22 +4760,22 @@
         <v>16010123035</v>
       </c>
       <c r="E116" t="s">
-        <v>55</v>
-      </c>
-      <c r="F116" t="s">
-        <v>103</v>
-      </c>
-      <c r="G116" t="s">
-        <v>104</v>
-      </c>
-      <c r="H116" t="s">
-        <v>105</v>
-      </c>
-      <c r="I116" t="s">
-        <v>106</v>
+        <v>52</v>
+      </c>
+      <c r="F116" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G116" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H116" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I116" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ116" s="1">
-        <f>SUM(DQ115,1)</f>
+        <f t="shared" si="7"/>
         <v>16010123035</v>
       </c>
     </row>
@@ -4797,22 +4794,22 @@
         <v>16010123036</v>
       </c>
       <c r="E117" t="s">
-        <v>56</v>
-      </c>
-      <c r="F117" t="s">
-        <v>103</v>
-      </c>
-      <c r="G117" t="s">
-        <v>104</v>
-      </c>
-      <c r="H117" t="s">
-        <v>105</v>
-      </c>
-      <c r="I117" t="s">
-        <v>106</v>
+        <v>53</v>
+      </c>
+      <c r="F117" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G117" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H117" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I117" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ117" s="1">
-        <f>SUM(DQ116,1)</f>
+        <f t="shared" si="7"/>
         <v>16010123036</v>
       </c>
     </row>
@@ -4831,22 +4828,22 @@
         <v>16010123037</v>
       </c>
       <c r="E118" t="s">
-        <v>57</v>
-      </c>
-      <c r="F118" t="s">
-        <v>103</v>
-      </c>
-      <c r="G118" t="s">
-        <v>104</v>
-      </c>
-      <c r="H118" t="s">
-        <v>105</v>
-      </c>
-      <c r="I118" t="s">
-        <v>106</v>
+        <v>54</v>
+      </c>
+      <c r="F118" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G118" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H118" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I118" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ118" s="1">
-        <f>SUM(DQ117,1)</f>
+        <f t="shared" si="7"/>
         <v>16010123037</v>
       </c>
     </row>
@@ -4865,22 +4862,22 @@
         <v>16010123038</v>
       </c>
       <c r="E119" t="s">
-        <v>58</v>
-      </c>
-      <c r="F119" t="s">
-        <v>103</v>
-      </c>
-      <c r="G119" t="s">
-        <v>104</v>
-      </c>
-      <c r="H119" t="s">
-        <v>105</v>
-      </c>
-      <c r="I119" t="s">
-        <v>106</v>
+        <v>55</v>
+      </c>
+      <c r="F119" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G119" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H119" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I119" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ119" s="1">
-        <f>SUM(DQ118,1)</f>
+        <f t="shared" si="7"/>
         <v>16010123038</v>
       </c>
     </row>
@@ -4899,22 +4896,22 @@
         <v>16010123039</v>
       </c>
       <c r="E120" t="s">
-        <v>59</v>
-      </c>
-      <c r="F120" t="s">
-        <v>103</v>
-      </c>
-      <c r="G120" t="s">
-        <v>104</v>
-      </c>
-      <c r="H120" t="s">
-        <v>105</v>
-      </c>
-      <c r="I120" t="s">
-        <v>106</v>
+        <v>56</v>
+      </c>
+      <c r="F120" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G120" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H120" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I120" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ120" s="1">
-        <f>SUM(DQ119,1)</f>
+        <f t="shared" si="7"/>
         <v>16010123039</v>
       </c>
     </row>
@@ -4933,22 +4930,22 @@
         <v>16010123040</v>
       </c>
       <c r="E121" t="s">
-        <v>60</v>
-      </c>
-      <c r="F121" t="s">
-        <v>103</v>
-      </c>
-      <c r="G121" t="s">
-        <v>104</v>
-      </c>
-      <c r="H121" t="s">
-        <v>105</v>
-      </c>
-      <c r="I121" t="s">
-        <v>106</v>
+        <v>57</v>
+      </c>
+      <c r="F121" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G121" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H121" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I121" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ121" s="1">
-        <f>SUM(DQ120,1)</f>
+        <f t="shared" si="7"/>
         <v>16010123040</v>
       </c>
     </row>
@@ -4967,22 +4964,22 @@
         <v>16010123041</v>
       </c>
       <c r="E122" t="s">
-        <v>61</v>
-      </c>
-      <c r="F122" t="s">
-        <v>103</v>
-      </c>
-      <c r="G122" t="s">
-        <v>104</v>
-      </c>
-      <c r="H122" t="s">
-        <v>105</v>
-      </c>
-      <c r="I122" t="s">
-        <v>106</v>
+        <v>58</v>
+      </c>
+      <c r="F122" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G122" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H122" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I122" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ122" s="1">
-        <f>SUM(DQ121,1)</f>
+        <f t="shared" si="7"/>
         <v>16010123041</v>
       </c>
     </row>
@@ -5001,22 +4998,22 @@
         <v>16010123042</v>
       </c>
       <c r="E123" t="s">
-        <v>62</v>
-      </c>
-      <c r="F123" t="s">
-        <v>103</v>
-      </c>
-      <c r="G123" t="s">
-        <v>104</v>
-      </c>
-      <c r="H123" t="s">
-        <v>105</v>
-      </c>
-      <c r="I123" t="s">
-        <v>106</v>
+        <v>59</v>
+      </c>
+      <c r="F123" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G123" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H123" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I123" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ123" s="1">
-        <f>SUM(DQ122,1)</f>
+        <f t="shared" si="7"/>
         <v>16010123042</v>
       </c>
     </row>
@@ -5035,22 +5032,22 @@
         <v>16010123043</v>
       </c>
       <c r="E124" t="s">
-        <v>63</v>
-      </c>
-      <c r="F124" t="s">
-        <v>103</v>
-      </c>
-      <c r="G124" t="s">
-        <v>104</v>
-      </c>
-      <c r="H124" t="s">
-        <v>105</v>
-      </c>
-      <c r="I124" t="s">
-        <v>106</v>
+        <v>60</v>
+      </c>
+      <c r="F124" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G124" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H124" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I124" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ124" s="1">
-        <f>SUM(DQ123,1)</f>
+        <f t="shared" si="7"/>
         <v>16010123043</v>
       </c>
     </row>
@@ -5069,22 +5066,22 @@
         <v>16010123044</v>
       </c>
       <c r="E125" t="s">
-        <v>64</v>
-      </c>
-      <c r="F125" t="s">
-        <v>103</v>
-      </c>
-      <c r="G125" t="s">
-        <v>104</v>
-      </c>
-      <c r="H125" t="s">
-        <v>105</v>
-      </c>
-      <c r="I125" t="s">
-        <v>106</v>
+        <v>61</v>
+      </c>
+      <c r="F125" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G125" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H125" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I125" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ125" s="1">
-        <f>SUM(DQ124,1)</f>
+        <f t="shared" si="7"/>
         <v>16010123044</v>
       </c>
     </row>
@@ -5103,22 +5100,22 @@
         <v>16010123045</v>
       </c>
       <c r="E126" t="s">
-        <v>65</v>
-      </c>
-      <c r="F126" t="s">
-        <v>103</v>
-      </c>
-      <c r="G126" t="s">
-        <v>104</v>
-      </c>
-      <c r="H126" t="s">
-        <v>105</v>
-      </c>
-      <c r="I126" t="s">
-        <v>106</v>
+        <v>62</v>
+      </c>
+      <c r="F126" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G126" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H126" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I126" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ126" s="1">
-        <f>SUM(DQ125,1)</f>
+        <f t="shared" si="7"/>
         <v>16010123045</v>
       </c>
     </row>
@@ -5137,22 +5134,22 @@
         <v>16010123046</v>
       </c>
       <c r="E127" t="s">
-        <v>66</v>
-      </c>
-      <c r="F127" t="s">
-        <v>103</v>
-      </c>
-      <c r="G127" t="s">
-        <v>104</v>
-      </c>
-      <c r="H127" t="s">
-        <v>105</v>
-      </c>
-      <c r="I127" t="s">
-        <v>106</v>
+        <v>63</v>
+      </c>
+      <c r="F127" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G127" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H127" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I127" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ127" s="1">
-        <f>SUM(DQ126,1)</f>
+        <f t="shared" si="7"/>
         <v>16010123046</v>
       </c>
     </row>
@@ -5171,22 +5168,22 @@
         <v>16010123047</v>
       </c>
       <c r="E128" t="s">
-        <v>67</v>
-      </c>
-      <c r="F128" t="s">
-        <v>103</v>
-      </c>
-      <c r="G128" t="s">
-        <v>104</v>
-      </c>
-      <c r="H128" t="s">
-        <v>105</v>
-      </c>
-      <c r="I128" t="s">
-        <v>106</v>
+        <v>64</v>
+      </c>
+      <c r="F128" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G128" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H128" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I128" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ128" s="1">
-        <f>SUM(DQ127,1)</f>
+        <f t="shared" si="7"/>
         <v>16010123047</v>
       </c>
     </row>
@@ -5205,22 +5202,22 @@
         <v>16010123048</v>
       </c>
       <c r="E129" t="s">
-        <v>68</v>
-      </c>
-      <c r="F129" t="s">
-        <v>103</v>
-      </c>
-      <c r="G129" t="s">
-        <v>104</v>
-      </c>
-      <c r="H129" t="s">
-        <v>105</v>
-      </c>
-      <c r="I129" t="s">
-        <v>106</v>
+        <v>65</v>
+      </c>
+      <c r="F129" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G129" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H129" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I129" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ129" s="1">
-        <f>SUM(DQ128,1)</f>
+        <f t="shared" si="7"/>
         <v>16010123048</v>
       </c>
     </row>
@@ -5239,22 +5236,22 @@
         <v>16010123049</v>
       </c>
       <c r="E130" t="s">
-        <v>69</v>
-      </c>
-      <c r="F130" t="s">
-        <v>103</v>
-      </c>
-      <c r="G130" t="s">
-        <v>104</v>
-      </c>
-      <c r="H130" t="s">
-        <v>105</v>
-      </c>
-      <c r="I130" t="s">
-        <v>106</v>
+        <v>66</v>
+      </c>
+      <c r="F130" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G130" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H130" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I130" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ130" s="1">
-        <f>SUM(DQ129,1)</f>
+        <f t="shared" si="7"/>
         <v>16010123049</v>
       </c>
     </row>
@@ -5273,22 +5270,22 @@
         <v>16010123050</v>
       </c>
       <c r="E131" t="s">
-        <v>70</v>
-      </c>
-      <c r="F131" t="s">
-        <v>103</v>
-      </c>
-      <c r="G131" t="s">
-        <v>104</v>
-      </c>
-      <c r="H131" t="s">
-        <v>105</v>
-      </c>
-      <c r="I131" t="s">
-        <v>106</v>
+        <v>67</v>
+      </c>
+      <c r="F131" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G131" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H131" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I131" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ131" s="1">
-        <f>SUM(DQ130,1)</f>
+        <f t="shared" si="7"/>
         <v>16010123050</v>
       </c>
     </row>
@@ -5307,22 +5304,22 @@
         <v>16010123051</v>
       </c>
       <c r="E132" t="s">
-        <v>71</v>
-      </c>
-      <c r="F132" t="s">
-        <v>103</v>
-      </c>
-      <c r="G132" t="s">
-        <v>104</v>
-      </c>
-      <c r="H132" t="s">
-        <v>105</v>
-      </c>
-      <c r="I132" t="s">
-        <v>106</v>
+        <v>68</v>
+      </c>
+      <c r="F132" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G132" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H132" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I132" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ132" s="1">
-        <f>SUM(DQ131,1)</f>
+        <f t="shared" si="7"/>
         <v>16010123051</v>
       </c>
     </row>
@@ -5341,22 +5338,22 @@
         <v>16010123052</v>
       </c>
       <c r="E133" t="s">
-        <v>72</v>
-      </c>
-      <c r="F133" t="s">
-        <v>103</v>
-      </c>
-      <c r="G133" t="s">
-        <v>104</v>
-      </c>
-      <c r="H133" t="s">
-        <v>105</v>
-      </c>
-      <c r="I133" t="s">
-        <v>106</v>
+        <v>69</v>
+      </c>
+      <c r="F133" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G133" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H133" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I133" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ133" s="1">
-        <f>SUM(DQ132,1)</f>
+        <f t="shared" si="7"/>
         <v>16010123052</v>
       </c>
     </row>
@@ -5375,22 +5372,22 @@
         <v>16010123053</v>
       </c>
       <c r="E134" t="s">
-        <v>73</v>
-      </c>
-      <c r="F134" t="s">
-        <v>103</v>
-      </c>
-      <c r="G134" t="s">
-        <v>104</v>
-      </c>
-      <c r="H134" t="s">
-        <v>105</v>
-      </c>
-      <c r="I134" t="s">
-        <v>106</v>
+        <v>70</v>
+      </c>
+      <c r="F134" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G134" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H134" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I134" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ134" s="1">
-        <f>SUM(DQ133,1)</f>
+        <f t="shared" si="7"/>
         <v>16010123053</v>
       </c>
     </row>
@@ -5409,22 +5406,22 @@
         <v>16010123054</v>
       </c>
       <c r="E135" t="s">
-        <v>74</v>
-      </c>
-      <c r="F135" t="s">
-        <v>103</v>
-      </c>
-      <c r="G135" t="s">
-        <v>104</v>
-      </c>
-      <c r="H135" t="s">
-        <v>105</v>
-      </c>
-      <c r="I135" t="s">
-        <v>106</v>
+        <v>71</v>
+      </c>
+      <c r="F135" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G135" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H135" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I135" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ135" s="1">
-        <f>SUM(DQ134,1)</f>
+        <f t="shared" si="7"/>
         <v>16010123054</v>
       </c>
     </row>
@@ -5443,22 +5440,22 @@
         <v>16010123055</v>
       </c>
       <c r="E136" t="s">
-        <v>75</v>
-      </c>
-      <c r="F136" t="s">
-        <v>103</v>
-      </c>
-      <c r="G136" t="s">
-        <v>104</v>
-      </c>
-      <c r="H136" t="s">
-        <v>105</v>
-      </c>
-      <c r="I136" t="s">
-        <v>106</v>
+        <v>72</v>
+      </c>
+      <c r="F136" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G136" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H136" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I136" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ136" s="1">
-        <f>SUM(DQ135,1)</f>
+        <f t="shared" si="7"/>
         <v>16010123055</v>
       </c>
     </row>
@@ -5477,22 +5474,22 @@
         <v>16010123056</v>
       </c>
       <c r="E137" t="s">
-        <v>76</v>
-      </c>
-      <c r="F137" t="s">
-        <v>103</v>
-      </c>
-      <c r="G137" t="s">
-        <v>104</v>
-      </c>
-      <c r="H137" t="s">
-        <v>105</v>
-      </c>
-      <c r="I137" t="s">
-        <v>106</v>
+        <v>73</v>
+      </c>
+      <c r="F137" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G137" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H137" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I137" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ137" s="1">
-        <f>SUM(DQ136,1)</f>
+        <f t="shared" si="7"/>
         <v>16010123056</v>
       </c>
     </row>
@@ -5511,22 +5508,22 @@
         <v>16010123057</v>
       </c>
       <c r="E138" t="s">
-        <v>77</v>
-      </c>
-      <c r="F138" t="s">
-        <v>103</v>
-      </c>
-      <c r="G138" t="s">
-        <v>104</v>
-      </c>
-      <c r="H138" t="s">
-        <v>105</v>
-      </c>
-      <c r="I138" t="s">
-        <v>106</v>
+        <v>74</v>
+      </c>
+      <c r="F138" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G138" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H138" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I138" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ138" s="1">
-        <f>SUM(DQ137,1)</f>
+        <f t="shared" si="7"/>
         <v>16010123057</v>
       </c>
     </row>
@@ -5545,22 +5542,22 @@
         <v>16010123058</v>
       </c>
       <c r="E139" t="s">
-        <v>78</v>
-      </c>
-      <c r="F139" t="s">
-        <v>103</v>
-      </c>
-      <c r="G139" t="s">
-        <v>104</v>
-      </c>
-      <c r="H139" t="s">
-        <v>105</v>
-      </c>
-      <c r="I139" t="s">
-        <v>106</v>
+        <v>75</v>
+      </c>
+      <c r="F139" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G139" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H139" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I139" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ139" s="1">
-        <f>SUM(DQ138,1)</f>
+        <f t="shared" si="7"/>
         <v>16010123058</v>
       </c>
     </row>
@@ -5579,22 +5576,22 @@
         <v>16010123059</v>
       </c>
       <c r="E140" t="s">
-        <v>79</v>
-      </c>
-      <c r="F140" t="s">
-        <v>103</v>
-      </c>
-      <c r="G140" t="s">
-        <v>104</v>
-      </c>
-      <c r="H140" t="s">
-        <v>105</v>
-      </c>
-      <c r="I140" t="s">
-        <v>106</v>
+        <v>76</v>
+      </c>
+      <c r="F140" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G140" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H140" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I140" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ140" s="1">
-        <f>SUM(DQ139,1)</f>
+        <f t="shared" si="7"/>
         <v>16010123059</v>
       </c>
     </row>
@@ -5613,22 +5610,22 @@
         <v>16010123060</v>
       </c>
       <c r="E141" t="s">
-        <v>80</v>
-      </c>
-      <c r="F141" t="s">
-        <v>103</v>
-      </c>
-      <c r="G141" t="s">
-        <v>104</v>
-      </c>
-      <c r="H141" t="s">
-        <v>105</v>
-      </c>
-      <c r="I141" t="s">
-        <v>106</v>
+        <v>77</v>
+      </c>
+      <c r="F141" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G141" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H141" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I141" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ141" s="1">
-        <f>SUM(DQ140,1)</f>
+        <f t="shared" si="7"/>
         <v>16010123060</v>
       </c>
     </row>
@@ -5647,22 +5644,22 @@
         <v>16010123061</v>
       </c>
       <c r="E142" t="s">
-        <v>81</v>
-      </c>
-      <c r="F142" t="s">
-        <v>103</v>
-      </c>
-      <c r="G142" t="s">
-        <v>104</v>
-      </c>
-      <c r="H142" t="s">
-        <v>105</v>
-      </c>
-      <c r="I142" t="s">
-        <v>106</v>
+        <v>78</v>
+      </c>
+      <c r="F142" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G142" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H142" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I142" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ142" s="1">
-        <f>SUM(DQ141,1)</f>
+        <f t="shared" si="7"/>
         <v>16010123061</v>
       </c>
     </row>
@@ -5681,22 +5678,22 @@
         <v>16010123062</v>
       </c>
       <c r="E143" t="s">
-        <v>82</v>
-      </c>
-      <c r="F143" t="s">
-        <v>103</v>
-      </c>
-      <c r="G143" t="s">
-        <v>104</v>
-      </c>
-      <c r="H143" t="s">
-        <v>105</v>
-      </c>
-      <c r="I143" t="s">
-        <v>106</v>
+        <v>79</v>
+      </c>
+      <c r="F143" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G143" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H143" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I143" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ143" s="1">
-        <f>SUM(DQ142,1)</f>
+        <f t="shared" si="7"/>
         <v>16010123062</v>
       </c>
     </row>
@@ -5715,22 +5712,22 @@
         <v>16010123063</v>
       </c>
       <c r="E144" t="s">
-        <v>83</v>
-      </c>
-      <c r="F144" t="s">
-        <v>103</v>
-      </c>
-      <c r="G144" t="s">
-        <v>104</v>
-      </c>
-      <c r="H144" t="s">
-        <v>105</v>
-      </c>
-      <c r="I144" t="s">
-        <v>106</v>
+        <v>80</v>
+      </c>
+      <c r="F144" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G144" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H144" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I144" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ144" s="1">
-        <f>SUM(DQ143,1)</f>
+        <f t="shared" si="7"/>
         <v>16010123063</v>
       </c>
     </row>
@@ -5749,22 +5746,22 @@
         <v>16010123064</v>
       </c>
       <c r="E145" t="s">
-        <v>84</v>
-      </c>
-      <c r="F145" t="s">
-        <v>103</v>
-      </c>
-      <c r="G145" t="s">
-        <v>104</v>
-      </c>
-      <c r="H145" t="s">
-        <v>105</v>
-      </c>
-      <c r="I145" t="s">
-        <v>106</v>
+        <v>81</v>
+      </c>
+      <c r="F145" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G145" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H145" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I145" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ145" s="1">
-        <f>SUM(DQ144,1)</f>
+        <f t="shared" si="7"/>
         <v>16010123064</v>
       </c>
     </row>
@@ -5783,22 +5780,22 @@
         <v>16010123065</v>
       </c>
       <c r="E146" t="s">
-        <v>85</v>
-      </c>
-      <c r="F146" t="s">
-        <v>103</v>
-      </c>
-      <c r="G146" t="s">
-        <v>104</v>
-      </c>
-      <c r="H146" t="s">
-        <v>105</v>
-      </c>
-      <c r="I146" t="s">
-        <v>106</v>
+        <v>82</v>
+      </c>
+      <c r="F146" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G146" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H146" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I146" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ146" s="1">
-        <f>SUM(DQ145,1)</f>
+        <f t="shared" si="7"/>
         <v>16010123065</v>
       </c>
     </row>
@@ -5817,22 +5814,22 @@
         <v>16010123066</v>
       </c>
       <c r="E147" t="s">
-        <v>86</v>
-      </c>
-      <c r="F147" t="s">
-        <v>103</v>
-      </c>
-      <c r="G147" t="s">
-        <v>104</v>
-      </c>
-      <c r="H147" t="s">
-        <v>105</v>
-      </c>
-      <c r="I147" t="s">
-        <v>106</v>
+        <v>83</v>
+      </c>
+      <c r="F147" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G147" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H147" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I147" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ147" s="1">
-        <f>SUM(DQ146,1)</f>
+        <f t="shared" ref="DQ147:DQ161" si="8">SUM(DQ146,1)</f>
         <v>16010123066</v>
       </c>
     </row>
@@ -5851,22 +5848,22 @@
         <v>16010123067</v>
       </c>
       <c r="E148" t="s">
-        <v>87</v>
-      </c>
-      <c r="F148" t="s">
-        <v>103</v>
-      </c>
-      <c r="G148" t="s">
-        <v>104</v>
-      </c>
-      <c r="H148" t="s">
-        <v>105</v>
-      </c>
-      <c r="I148" t="s">
-        <v>106</v>
+        <v>84</v>
+      </c>
+      <c r="F148" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G148" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H148" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I148" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ148" s="1">
-        <f>SUM(DQ147,1)</f>
+        <f t="shared" si="8"/>
         <v>16010123067</v>
       </c>
     </row>
@@ -5885,22 +5882,22 @@
         <v>16010123068</v>
       </c>
       <c r="E149" t="s">
-        <v>88</v>
-      </c>
-      <c r="F149" t="s">
-        <v>103</v>
-      </c>
-      <c r="G149" t="s">
-        <v>104</v>
-      </c>
-      <c r="H149" t="s">
-        <v>105</v>
-      </c>
-      <c r="I149" t="s">
-        <v>106</v>
+        <v>85</v>
+      </c>
+      <c r="F149" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G149" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H149" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I149" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ149" s="1">
-        <f>SUM(DQ148,1)</f>
+        <f t="shared" si="8"/>
         <v>16010123068</v>
       </c>
     </row>
@@ -5919,22 +5916,22 @@
         <v>16010123069</v>
       </c>
       <c r="E150" t="s">
-        <v>89</v>
-      </c>
-      <c r="F150" t="s">
-        <v>103</v>
-      </c>
-      <c r="G150" t="s">
-        <v>104</v>
-      </c>
-      <c r="H150" t="s">
-        <v>105</v>
-      </c>
-      <c r="I150" t="s">
-        <v>106</v>
+        <v>86</v>
+      </c>
+      <c r="F150" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G150" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H150" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I150" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ150" s="1">
-        <f>SUM(DQ149,1)</f>
+        <f t="shared" si="8"/>
         <v>16010123069</v>
       </c>
     </row>
@@ -5953,22 +5950,22 @@
         <v>16010123070</v>
       </c>
       <c r="E151" t="s">
-        <v>90</v>
-      </c>
-      <c r="F151" t="s">
-        <v>103</v>
-      </c>
-      <c r="G151" t="s">
-        <v>104</v>
-      </c>
-      <c r="H151" t="s">
-        <v>105</v>
-      </c>
-      <c r="I151" t="s">
-        <v>106</v>
+        <v>87</v>
+      </c>
+      <c r="F151" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G151" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H151" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I151" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ151" s="1">
-        <f>SUM(DQ150,1)</f>
+        <f t="shared" si="8"/>
         <v>16010123070</v>
       </c>
     </row>
@@ -5987,22 +5984,22 @@
         <v>16010123071</v>
       </c>
       <c r="E152" t="s">
-        <v>91</v>
-      </c>
-      <c r="F152" t="s">
-        <v>103</v>
-      </c>
-      <c r="G152" t="s">
-        <v>104</v>
-      </c>
-      <c r="H152" t="s">
-        <v>105</v>
-      </c>
-      <c r="I152" t="s">
-        <v>106</v>
+        <v>88</v>
+      </c>
+      <c r="F152" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G152" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H152" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I152" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ152" s="1">
-        <f>SUM(DQ151,1)</f>
+        <f t="shared" si="8"/>
         <v>16010123071</v>
       </c>
     </row>
@@ -6021,22 +6018,22 @@
         <v>16010123072</v>
       </c>
       <c r="E153" t="s">
-        <v>92</v>
-      </c>
-      <c r="F153" t="s">
-        <v>103</v>
-      </c>
-      <c r="G153" t="s">
-        <v>104</v>
-      </c>
-      <c r="H153" t="s">
-        <v>105</v>
-      </c>
-      <c r="I153" t="s">
-        <v>106</v>
+        <v>89</v>
+      </c>
+      <c r="F153" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G153" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H153" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I153" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ153" s="1">
-        <f>SUM(DQ152,1)</f>
+        <f t="shared" si="8"/>
         <v>16010123072</v>
       </c>
     </row>
@@ -6055,22 +6052,22 @@
         <v>16010123073</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F154" t="s">
-        <v>103</v>
-      </c>
-      <c r="G154" t="s">
-        <v>104</v>
-      </c>
-      <c r="H154" t="s">
-        <v>105</v>
-      </c>
-      <c r="I154" t="s">
-        <v>106</v>
+        <v>90</v>
+      </c>
+      <c r="F154" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G154" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H154" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I154" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ154" s="1">
-        <f>SUM(DQ153,1)</f>
+        <f t="shared" si="8"/>
         <v>16010123073</v>
       </c>
     </row>
@@ -6089,22 +6086,22 @@
         <v>16010123074</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F155" t="s">
-        <v>103</v>
-      </c>
-      <c r="G155" t="s">
-        <v>104</v>
-      </c>
-      <c r="H155" t="s">
-        <v>105</v>
-      </c>
-      <c r="I155" t="s">
-        <v>106</v>
+        <v>91</v>
+      </c>
+      <c r="F155" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G155" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H155" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I155" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ155" s="1">
-        <f>SUM(DQ154,1)</f>
+        <f t="shared" si="8"/>
         <v>16010123074</v>
       </c>
     </row>
@@ -6123,22 +6120,22 @@
         <v>16010123075</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F156" t="s">
-        <v>103</v>
-      </c>
-      <c r="G156" t="s">
-        <v>104</v>
-      </c>
-      <c r="H156" t="s">
-        <v>105</v>
-      </c>
-      <c r="I156" t="s">
-        <v>106</v>
+        <v>92</v>
+      </c>
+      <c r="F156" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G156" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H156" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I156" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ156" s="1">
-        <f>SUM(DQ155,1)</f>
+        <f t="shared" si="8"/>
         <v>16010123075</v>
       </c>
     </row>
@@ -6157,22 +6154,22 @@
         <v>16010123076</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F157" t="s">
-        <v>103</v>
-      </c>
-      <c r="G157" t="s">
-        <v>104</v>
-      </c>
-      <c r="H157" t="s">
-        <v>105</v>
-      </c>
-      <c r="I157" t="s">
-        <v>106</v>
+        <v>93</v>
+      </c>
+      <c r="F157" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G157" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H157" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I157" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ157" s="1">
-        <f>SUM(DQ156,1)</f>
+        <f t="shared" si="8"/>
         <v>16010123076</v>
       </c>
     </row>
@@ -6191,22 +6188,22 @@
         <v>16010123077</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F158" t="s">
-        <v>103</v>
-      </c>
-      <c r="G158" t="s">
-        <v>104</v>
-      </c>
-      <c r="H158" t="s">
-        <v>105</v>
-      </c>
-      <c r="I158" t="s">
-        <v>106</v>
+        <v>94</v>
+      </c>
+      <c r="F158" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G158" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H158" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I158" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ158" s="1">
-        <f>SUM(DQ157,1)</f>
+        <f t="shared" si="8"/>
         <v>16010123077</v>
       </c>
     </row>
@@ -6225,22 +6222,22 @@
         <v>16010123078</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F159" t="s">
-        <v>103</v>
-      </c>
-      <c r="G159" t="s">
-        <v>104</v>
-      </c>
-      <c r="H159" t="s">
-        <v>105</v>
-      </c>
-      <c r="I159" t="s">
-        <v>106</v>
+        <v>95</v>
+      </c>
+      <c r="F159" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G159" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H159" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I159" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ159" s="1">
-        <f>SUM(DQ158,1)</f>
+        <f t="shared" si="8"/>
         <v>16010123078</v>
       </c>
     </row>
@@ -6259,22 +6256,22 @@
         <v>16010123079</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F160" t="s">
-        <v>103</v>
-      </c>
-      <c r="G160" t="s">
-        <v>104</v>
-      </c>
-      <c r="H160" t="s">
-        <v>105</v>
-      </c>
-      <c r="I160" t="s">
-        <v>106</v>
+        <v>96</v>
+      </c>
+      <c r="F160" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G160" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H160" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I160" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ160" s="1">
-        <f>SUM(DQ159,1)</f>
+        <f t="shared" si="8"/>
         <v>16010123079</v>
       </c>
     </row>
@@ -6293,26 +6290,27 @@
         <v>16010123080</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F161" t="s">
-        <v>103</v>
-      </c>
-      <c r="G161" t="s">
-        <v>104</v>
-      </c>
-      <c r="H161" t="s">
-        <v>105</v>
-      </c>
-      <c r="I161" t="s">
-        <v>106</v>
+        <v>97</v>
+      </c>
+      <c r="F161" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G161" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H161" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="I161" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="DQ161" s="1">
-        <f>SUM(DQ160,1)</f>
+        <f t="shared" si="8"/>
         <v>16010123080</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
